--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -566,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P10" activeCellId="0" sqref="P10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -851,7 +851,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -891,7 +891,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2054,7 +2054,7 @@
       <c r="D44" s="11"/>
       <c r="E44" s="10" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -56,6 +57,9 @@
     <t xml:space="preserve">Réalisé</t>
   </si>
   <si>
+    <t xml:space="preserve">Auteur</t>
+  </si>
+  <si>
     <t xml:space="preserve">catégorie / id</t>
   </si>
   <si>
@@ -68,6 +72,9 @@
     <t xml:space="preserve">/categories/{id}</t>
   </si>
   <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
     <t xml:space="preserve">collection de catégories</t>
   </si>
   <si>
@@ -83,7 +90,10 @@
     <t xml:space="preserve">Obtenir la liste des sandwichs du catalogue</t>
   </si>
   <si>
-    <t xml:space="preserve">/sandwich</t>
+    <t xml:space="preserve">/sandwichs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baptiste</t>
   </si>
   <si>
     <t xml:space="preserve">un sandwich</t>
@@ -92,7 +102,7 @@
     <t xml:space="preserve">Obtenir la description d'un sandwich</t>
   </si>
   <si>
-    <t xml:space="preserve">/sandwich/{id}</t>
+    <t xml:space="preserve">/sandwichs/{id}</t>
   </si>
   <si>
     <t xml:space="preserve">sandwich par catégorie</t>
@@ -108,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">Obtenir la liste des sandwich avec filtrage sur le type de pain et l'image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sandwichs/?t=baguette&amp;img=1</t>
   </si>
   <si>
     <t xml:space="preserve">pagination des sanwichs</t>
@@ -431,16 +444,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -567,21 +580,21 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.9438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4948979591837"/>
-    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.4030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.8979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -733,7 +746,9 @@
       <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -749,31 +764,33 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2"/>
+      <c r="G7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -789,31 +806,33 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -829,31 +848,33 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="n">
+      <c r="B9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2"/>
+      <c r="F9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -869,31 +890,33 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10" t="n">
+      <c r="B10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -909,31 +932,31 @@
       <c r="V10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10" t="n">
+      <c r="B11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="12" t="n">
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -949,29 +972,33 @@
       <c r="V11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10" t="n">
+      <c r="B12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="F12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -987,29 +1014,29 @@
       <c r="V12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="10" t="n">
+      <c r="B13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="n">
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1025,29 +1052,29 @@
       <c r="V13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="10" t="n">
+      <c r="B14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="n">
+      <c r="F14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1063,29 +1090,29 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="47.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="10" t="n">
+      <c r="B15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="n">
+      <c r="F15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1101,29 +1128,29 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="47.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="10" t="n">
+      <c r="B16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="n">
+      <c r="F16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1139,29 +1166,29 @@
       <c r="V16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="10" t="n">
+      <c r="B17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="n">
+      <c r="F17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1177,29 +1204,29 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="10" t="n">
+      <c r="B18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12" t="n">
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1215,29 +1242,29 @@
       <c r="V18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="10" t="n">
+      <c r="B19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12" t="n">
+      <c r="F19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1253,29 +1280,29 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="10" t="n">
+      <c r="C20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12" t="n">
+      <c r="F20" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1291,29 +1318,29 @@
       <c r="V20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="47.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="10" t="n">
+      <c r="C21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12" t="n">
+      <c r="F21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1329,29 +1356,29 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="10" t="n">
+      <c r="C22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12" t="n">
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1368,7 +1395,7 @@
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1377,7 +1404,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
@@ -1414,8 +1441,8 @@
       <c r="G24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1431,25 +1458,25 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="47.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
+      <c r="A25" s="11" t="n">
         <v>101</v>
       </c>
-      <c r="B25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="10" t="n">
+      <c r="B25" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="2"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1465,25 +1492,25 @@
       <c r="V25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="47.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
+      <c r="A26" s="11" t="n">
         <v>102</v>
       </c>
-      <c r="B26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="10" t="n">
+      <c r="B26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="2"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1499,25 +1526,25 @@
       <c r="V26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
+      <c r="A27" s="11" t="n">
         <v>103</v>
       </c>
-      <c r="B27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="10" t="n">
+      <c r="B27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="2"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1534,7 +1561,7 @@
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1543,7 +1570,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
@@ -1580,8 +1607,8 @@
       <c r="G29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1600,22 +1627,22 @@
       <c r="A30" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="B30" s="10" t="n">
+      <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="E30" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1631,25 +1658,25 @@
       <c r="V30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+      <c r="A31" s="11" t="n">
         <v>201</v>
       </c>
-      <c r="B31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="10" t="n">
+      <c r="B31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1665,25 +1692,25 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="47.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
+      <c r="A32" s="11" t="n">
         <v>203</v>
       </c>
-      <c r="B32" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="10" t="n">
+      <c r="B32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="2"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1699,25 +1726,25 @@
       <c r="V32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
+      <c r="A33" s="11" t="n">
         <v>204</v>
       </c>
-      <c r="B33" s="10" t="n">
+      <c r="B33" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="10" t="n">
+      <c r="C33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="2"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1734,7 +1761,7 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1743,7 +1770,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
@@ -1780,8 +1807,8 @@
       <c r="G35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="2"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1797,25 +1824,25 @@
       <c r="V35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
+      <c r="A36" s="11" t="n">
         <v>301</v>
       </c>
-      <c r="B36" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="10" t="n">
+      <c r="B36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="2"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1831,25 +1858,25 @@
       <c r="V36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
+      <c r="A37" s="11" t="n">
         <v>302</v>
       </c>
-      <c r="B37" s="10" t="n">
+      <c r="B37" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="10" t="n">
+      <c r="C37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="2"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -1865,25 +1892,25 @@
       <c r="V37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
+      <c r="A38" s="11" t="n">
         <v>303</v>
       </c>
-      <c r="B38" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="10" t="n">
+      <c r="B38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="2"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -1899,25 +1926,25 @@
       <c r="V38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
+      <c r="A39" s="11" t="n">
         <v>304</v>
       </c>
-      <c r="B39" s="10" t="n">
+      <c r="B39" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="10" t="n">
+      <c r="C39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="2"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -1933,25 +1960,25 @@
       <c r="V39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="36.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
+      <c r="A40" s="11" t="n">
         <v>305</v>
       </c>
-      <c r="B40" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="10" t="n">
+      <c r="B40" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="2"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -1967,25 +1994,25 @@
       <c r="V40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
+      <c r="A41" s="11" t="n">
         <v>306</v>
       </c>
-      <c r="B41" s="10" t="n">
+      <c r="B41" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="10" t="n">
+      <c r="C41" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="2"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2051,10 +2078,10 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="10" t="n">
+      <c r="D44" s="12"/>
+      <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2079,9 +2106,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>
         <v>100</v>
       </c>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">Obtenir la liste des sandwichs avec pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sandwichs/?page=1&amp;size=10</t>
   </si>
   <si>
     <t xml:space="preserve">un sandwich complet</t>
@@ -579,8 +582,8 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1032,11 +1035,15 @@
       <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1059,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>3</v>
@@ -1097,16 +1104,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="n">
@@ -1135,16 +1142,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="n">
@@ -1173,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>4</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="n">
@@ -1211,16 +1218,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="n">
@@ -1249,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>2</v>
@@ -1287,16 +1294,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="n">
@@ -1325,16 +1332,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10" t="n">
@@ -1363,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>4</v>
@@ -1395,7 +1402,7 @@
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1465,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>3</v>
@@ -1499,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>3</v>
@@ -1533,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>3</v>
@@ -1561,7 +1568,7 @@
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1631,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>5</v>
@@ -1665,10 +1672,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
@@ -1699,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1733,10 +1740,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1761,7 +1768,7 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1831,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1865,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -1899,10 +1906,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -1933,10 +1940,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -1967,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2001,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2081,7 +2088,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2106,7 +2113,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -145,6 +146,12 @@
   </si>
   <si>
     <t xml:space="preserve">POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/commandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baptiste/Islam</t>
   </si>
   <si>
     <t xml:space="preserve">ajouter  sandwich</t>
@@ -582,22 +589,23 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.4030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="22" min="9" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.7244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.3010204081633"/>
+    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.6275510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -957,9 +965,11 @@
         <v>28</v>
       </c>
       <c r="H11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1077,11 +1087,15 @@
       <c r="F14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="H14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1115,11 +1129,15 @@
       <c r="F15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="H15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1142,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>6</v>
@@ -1180,16 +1198,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="11" t="n">
         <v>4</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="n">
@@ -1218,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>3</v>
@@ -1256,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>2</v>
@@ -1294,16 +1312,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="n">
@@ -1332,16 +1350,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10" t="n">
@@ -1370,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>4</v>
@@ -1402,7 +1420,7 @@
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1472,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>3</v>
@@ -1506,10 +1524,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>3</v>
@@ -1540,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>3</v>
@@ -1568,7 +1586,7 @@
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1638,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>5</v>
@@ -1672,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
@@ -1706,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1740,10 +1758,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1768,7 +1786,7 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1838,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1872,10 +1890,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -1906,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -1940,10 +1958,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -1974,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2008,10 +2026,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2088,7 +2106,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2113,7 +2131,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">obtenir la commande pour suivre son état</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/commandes/{id}</t>
   </si>
   <si>
     <t xml:space="preserve">supprimer sandwich</t>
@@ -590,7 +593,7 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1285,7 +1288,9 @@
       <c r="F19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="H19" s="10" t="n">
         <v>0</v>
       </c>
@@ -1312,16 +1317,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="n">
@@ -1350,10 +1355,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>3</v>
@@ -1388,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>4</v>
@@ -1420,7 +1425,7 @@
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1490,10 +1495,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>3</v>
@@ -1524,10 +1529,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>3</v>
@@ -1558,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>3</v>
@@ -1586,7 +1591,7 @@
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1656,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>5</v>
@@ -1690,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
@@ -1724,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1758,10 +1763,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1786,7 +1791,7 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1856,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1890,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -1924,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -1958,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -1992,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2026,10 +2031,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2131,7 +2136,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -181,7 +182,7 @@
     <t xml:space="preserve">obtenir la commande pour suivre son état</t>
   </si>
   <si>
-    <t xml:space="preserve">/commandes/{id}</t>
+    <t xml:space="preserve">/commandes/{id}?token={token}</t>
   </si>
   <si>
     <t xml:space="preserve">supprimer sandwich</t>
@@ -593,22 +594,22 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.3010204081633"/>
-    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.0510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1292,9 +1293,11 @@
         <v>51</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2111,7 +2114,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">/categories/{id}</t>
   </si>
   <si>
-    <t xml:space="preserve">all</t>
+    <t xml:space="preserve">Baptiste</t>
   </si>
   <si>
     <t xml:space="preserve">collection de catégories</t>
@@ -95,9 +95,6 @@
     <t xml:space="preserve">/sandwichs</t>
   </si>
   <si>
-    <t xml:space="preserve">Baptiste</t>
-  </si>
-  <si>
     <t xml:space="preserve">un sandwich</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
     <t xml:space="preserve">ajouter un sandwich à une commande existante – en accord avec l'état de la commande – transmet les id de sandwich et taille et la quantité</t>
   </si>
   <si>
+    <t xml:space="preserve">/commandes/{id}/sandwich?token={token}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modifier une commande</t>
   </si>
   <si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/commandes/{id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel/Mohammed</t>
   </si>
   <si>
     <t xml:space="preserve">Payer une commande</t>
@@ -303,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -354,6 +360,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -417,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,15 +481,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,7 +609,7 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,7 +620,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.0510204081633"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.3316326530612"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9438775510204"/>
     <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.31632653061224"/>
@@ -803,7 +818,7 @@
       <c r="H7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="2"/>
@@ -845,7 +860,7 @@
       <c r="H8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2"/>
@@ -888,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -912,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>2</v>
@@ -924,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -954,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>3</v>
@@ -966,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -996,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="11" t="n">
         <v>3</v>
@@ -1008,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1038,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="11" t="n">
         <v>3</v>
@@ -1050,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1080,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>3</v>
@@ -1092,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1122,25 +1137,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="H15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1164,22 +1179,26 @@
         <v>1</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1213,11 +1232,15 @@
       <c r="F17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="H17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1240,16 +1263,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="n">
@@ -1278,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>2</v>
@@ -1290,13 +1313,13 @@
         <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1320,16 +1343,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="n">
@@ -1358,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>3</v>
@@ -1396,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>4</v>
@@ -1427,30 +1450,30 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
+      <c r="A23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
@@ -1498,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>3</v>
@@ -1532,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>3</v>
@@ -1566,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>3</v>
@@ -1594,29 +1617,29 @@
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
@@ -1663,11 +1686,11 @@
       <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>68</v>
+      <c r="C30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>5</v>
@@ -1698,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
@@ -1732,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1766,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1794,29 +1817,29 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
@@ -1864,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1898,10 +1921,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -1932,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -1966,10 +1989,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -2000,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2034,10 +2057,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2063,8 +2086,8 @@
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2087,8 +2110,8 @@
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2110,11 +2133,11 @@
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2137,9 +2160,9 @@
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23" t="s">
-        <v>88</v>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -242,10 +243,16 @@
     <t xml:space="preserve">authentification  http basic, retourne un token jwt</t>
   </si>
   <si>
+    <t xml:space="preserve">Baptiste/Islam/Mohammed</t>
+  </si>
+  <si>
     <t xml:space="preserve">accéder à sa carte de fidélité : montant + réduction</t>
   </si>
   <si>
     <t xml:space="preserve">Accès à une carte : le token jwt est nécessaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed</t>
   </si>
   <si>
     <t xml:space="preserve">paiement fidélisé</t>
@@ -309,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -360,11 +367,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -428,7 +430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,19 +483,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,23 +606,22 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.0510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.3316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -818,7 +815,7 @@
       <c r="H7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="2"/>
@@ -860,7 +857,7 @@
       <c r="H8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2"/>
@@ -1450,30 +1447,30 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
@@ -1619,27 +1616,27 @@
       <c r="A28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
@@ -1686,10 +1683,10 @@
       <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="11" t="n">
@@ -1697,8 +1694,12 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1721,18 +1722,22 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1755,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1789,10 +1794,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1817,29 +1822,29 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
@@ -1887,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1921,10 +1926,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -1955,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -1989,10 +1994,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -2023,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2057,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2086,8 +2091,8 @@
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2110,8 +2115,8 @@
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2133,7 +2138,7 @@
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="23"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
@@ -2160,9 +2165,9 @@
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24" t="s">
-        <v>90</v>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -73,7 +74,7 @@
     <t xml:space="preserve">/categories/{id}</t>
   </si>
   <si>
-    <t xml:space="preserve">all</t>
+    <t xml:space="preserve">Baptiste</t>
   </si>
   <si>
     <t xml:space="preserve">collection de catégories</t>
@@ -94,9 +95,6 @@
     <t xml:space="preserve">/sandwichs</t>
   </si>
   <si>
-    <t xml:space="preserve">Baptiste</t>
-  </si>
-  <si>
     <t xml:space="preserve">un sandwich</t>
   </si>
   <si>
@@ -160,6 +158,9 @@
     <t xml:space="preserve">ajouter un sandwich à une commande existante – en accord avec l'état de la commande – transmet les id de sandwich et taille et la quantité</t>
   </si>
   <si>
+    <t xml:space="preserve">/commandes/{id}/sandwich?token={token}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modifier une commande</t>
   </si>
   <si>
@@ -169,6 +170,12 @@
     <t xml:space="preserve">PUT</t>
   </si>
   <si>
+    <t xml:space="preserve">/commandes/{id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel/Mohammed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Payer une commande</t>
   </si>
   <si>
@@ -181,7 +188,7 @@
     <t xml:space="preserve">obtenir la commande pour suivre son état</t>
   </si>
   <si>
-    <t xml:space="preserve">/commandes/{id}</t>
+    <t xml:space="preserve">/commandes/{id}?token={token}</t>
   </si>
   <si>
     <t xml:space="preserve">supprimer sandwich</t>
@@ -302,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -353,6 +360,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -416,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,15 +481,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -593,22 +609,22 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.7244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.3010204081633"/>
-    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.0510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.3316326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="18.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -802,7 +818,7 @@
       <c r="H7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="2"/>
@@ -844,7 +860,7 @@
       <c r="H8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="2"/>
@@ -887,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -911,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="11" t="n">
         <v>2</v>
@@ -923,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -953,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="11" t="n">
         <v>3</v>
@@ -965,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -995,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="11" t="n">
         <v>3</v>
@@ -1007,13 +1023,13 @@
         <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1037,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="11" t="n">
         <v>3</v>
@@ -1049,13 +1065,13 @@
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1079,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="11" t="n">
         <v>3</v>
@@ -1091,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1121,25 +1137,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="E15" s="11" t="n">
         <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="H15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1163,22 +1179,26 @@
         <v>1</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E16" s="11" t="n">
         <v>6</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1212,11 +1232,15 @@
       <c r="F17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="H17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1239,16 +1263,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="n">
@@ -1277,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>2</v>
@@ -1289,12 +1313,14 @@
         <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1317,16 +1343,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="n">
@@ -1355,10 +1381,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>3</v>
@@ -1393,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>4</v>
@@ -1424,30 +1450,30 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
+      <c r="A23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
@@ -1495,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>3</v>
@@ -1529,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>3</v>
@@ -1563,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>3</v>
@@ -1591,29 +1617,29 @@
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
@@ -1660,11 +1686,11 @@
       <c r="B30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>68</v>
+      <c r="C30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>5</v>
@@ -1695,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
@@ -1729,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1763,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1791,29 +1817,29 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
@@ -1861,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1895,10 +1921,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -1929,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -1963,10 +1989,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -1997,10 +2023,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2031,10 +2057,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2060,8 +2086,8 @@
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2084,8 +2110,8 @@
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2107,11 +2133,11 @@
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="22"/>
+      <c r="C44" s="23"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2134,9 +2160,9 @@
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23" t="s">
-        <v>88</v>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -243,6 +244,9 @@
     <t xml:space="preserve">authentification  http basic, retourne un token jwt</t>
   </si>
   <si>
+    <t xml:space="preserve">/cartes/{id}/auth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baptiste/Islam/Mohammed</t>
   </si>
   <si>
@@ -252,13 +256,16 @@
     <t xml:space="preserve">Accès à une carte : le token jwt est nécessaire</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohammed</t>
+    <t xml:space="preserve">/cartes/{id}</t>
   </si>
   <si>
     <t xml:space="preserve">paiement fidélisé</t>
   </si>
   <si>
     <t xml:space="preserve">payer une commande en utilisant la carte : le montant est crédité sur la carte, on peut utiliser la réduction issue de la carte de fidélité – le montant cumulé est remis à 0 – le token jwt est nécessaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/cartes/{id}/paiement</t>
   </si>
   <si>
     <t xml:space="preserve">créer sa carte de fidélité</t>
@@ -606,22 +613,23 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.8367346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.2755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1528,7 +1536,9 @@
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="10"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1562,7 +1572,9 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" s="10"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1596,7 +1608,9 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" s="10"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1692,13 +1706,17 @@
       <c r="E30" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
+      <c r="F30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="H30" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1722,21 +1740,25 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
+      <c r="F31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="H31" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1760,18 +1782,26 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="F32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1794,10 +1824,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1822,7 +1852,7 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1892,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1926,10 +1956,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -1960,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -1994,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -2028,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2062,10 +2092,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2141,8 +2171,8 @@
       <c r="C44" s="22"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
-        <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22</f>
-        <v>36</v>
+        <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22+E25*H25+E26*H26+E27*H27+E30*H30+E31*H31+E32*H32+E33*H33+E36*H36+E37*H37+E38*H38+E39*H39+E40*H40+E41*H41</f>
+        <v>52</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2167,7 +2197,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">payer une commande en transmettant des coordonnées bancaires – (n°carte+date-expiration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/commandes/{id}/paiement?token={token}</t>
   </si>
   <si>
     <t xml:space="preserve">état de la commande</t>
@@ -613,8 +616,8 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1279,11 +1282,15 @@
       <c r="F18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="H18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1306,10 +1313,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="11" t="n">
         <v>2</v>
@@ -1318,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H19" s="10" t="n">
         <v>1</v>
@@ -1348,16 +1355,16 @@
         <v>2</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="11" t="n">
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10" t="n">
@@ -1386,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="11" t="n">
         <v>3</v>
@@ -1424,10 +1431,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="11" t="n">
         <v>4</v>
@@ -1456,7 +1463,7 @@
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1526,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="11" t="n">
         <v>3</v>
@@ -1562,10 +1569,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>3</v>
@@ -1598,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>3</v>
@@ -1628,7 +1635,7 @@
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1698,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>5</v>
@@ -1710,13 +1717,13 @@
         <v>13</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1740,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
@@ -1752,13 +1759,13 @@
         <v>13</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H31" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1782,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1794,7 +1801,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" s="10" t="n">
         <v>1</v>
@@ -1824,10 +1831,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1852,7 +1859,7 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1922,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1956,10 +1963,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -1990,10 +1997,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -2024,10 +2031,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -2058,10 +2065,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2092,10 +2099,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2172,7 +2179,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22+E25*H25+E26*H26+E27*H27+E30*H30+E31*H31+E32*H32+E33*H33+E36*H36+E37*H37+E38*H38+E39*H39+E40*H40+E41*H41</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2197,7 +2204,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -112,7 +113,7 @@
     <t xml:space="preserve">obtenir la liste des sandwichs d'une catégorie</t>
   </si>
   <si>
-    <t xml:space="preserve">/categoires/{id}/sandwich</t>
+    <t xml:space="preserve">/categories/{id}/sandwich</t>
   </si>
   <si>
     <t xml:space="preserve">filtrage des sandwichs</t>
@@ -616,23 +617,23 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.8367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.2755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="44.1428571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.6020408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1939,8 +1940,12 @@
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="H36" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2075,8 +2080,12 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="H40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2179,7 +2188,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22+E25*H25+E26*H26+E27*H27+E30*H30+E31*H31+E32*H32+E33*H33+E36*H36+E37*H37+E38*H38+E39*H39+E40*H40+E41*H41</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">Feuille1!$A$1:$G$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -176,7 +177,7 @@
     <t xml:space="preserve">/commandes/{id}</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel/Mohammed</t>
+    <t xml:space="preserve">Daniel/Mohammed/Baptiste/Islam</t>
   </si>
   <si>
     <t xml:space="preserve">Payer une commande</t>
@@ -227,6 +228,9 @@
     <t xml:space="preserve">liste des commandes, filtrées sur l'état , triée par date de livraison et ordre de création – permet au point de vente de planifier la préparation des commandes</t>
   </si>
   <si>
+    <t xml:space="preserve">Mohammed</t>
+  </si>
+  <si>
     <t xml:space="preserve">détail d'une commande</t>
   </si>
   <si>
@@ -239,6 +243,9 @@
     <t xml:space="preserve">changement de l'état d'une commande – vérification de la validité de la transition</t>
   </si>
   <si>
+    <t xml:space="preserve">/commandes/{id}/edit_state</t>
+  </si>
+  <si>
     <t xml:space="preserve">STORIES CONCERNANT LA GESTION DE LA CARTE DE FIDELITE</t>
   </si>
   <si>
@@ -287,6 +294,9 @@
     <t xml:space="preserve">lister les sandwichs  disponibles par catégories</t>
   </si>
   <si>
+    <t xml:space="preserve">/liste</t>
+  </si>
+  <si>
     <t xml:space="preserve">supprimer un sandwich</t>
   </si>
   <si>
@@ -309,6 +319,9 @@
   </si>
   <si>
     <t xml:space="preserve">identifiant + passwd – contrôle d'accès</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/connexion</t>
   </si>
   <si>
     <t xml:space="preserve">obtenir un TDB </t>
@@ -617,23 +630,23 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.6020408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="22" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1542,12 +1555,18 @@
       <c r="E25" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="H25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1570,20 +1589,26 @@
         <v>1</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="H26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1606,20 +1631,26 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
+      <c r="F27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="H27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1636,7 +1667,7 @@
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -1706,10 +1737,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E30" s="11" t="n">
         <v>5</v>
@@ -1718,13 +1749,13 @@
         <v>13</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H30" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1748,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E31" s="11" t="n">
         <v>5</v>
@@ -1760,13 +1791,13 @@
         <v>13</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H31" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1790,10 +1821,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32" s="11" t="n">
         <v>6</v>
@@ -1802,7 +1833,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H32" s="10" t="n">
         <v>1</v>
@@ -1832,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E33" s="11" t="n">
         <v>4</v>
@@ -1860,7 +1891,7 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1930,16 +1961,20 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="H36" s="10" t="n">
         <v>1</v>
       </c>
@@ -1968,10 +2003,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -2002,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
@@ -2036,10 +2071,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -2070,16 +2105,20 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="10"/>
+      <c r="F40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="H40" s="10" t="n">
         <v>1</v>
       </c>
@@ -2108,10 +2147,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2188,7 +2227,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22+E25*H25+E26*H26+E27*H27+E30*H30+E31*H31+E32*H32+E33*H33+E36*H36+E37*H37+E38*H38+E39*H39+E40*H40+E41*H41</f>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2213,7 +2252,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>

--- a/conception/LBS-stories-LP1.xlsx
+++ b/conception/LBS-stories-LP1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
   <si>
     <t xml:space="preserve">USER STORIES pour l'application LE BON SANDWICH</t>
   </si>
@@ -285,6 +285,12 @@
     <t xml:space="preserve">créer une carte de fidélité – retourne un identifiant de carte </t>
   </si>
   <si>
+    <t xml:space="preserve">/carte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel /Baptiste/Islam</t>
+  </si>
+  <si>
     <t xml:space="preserve">STORIES CONCERNANT LE BACKEND DE GESTION</t>
   </si>
   <si>
@@ -307,6 +313,9 @@
   </si>
   <si>
     <t xml:space="preserve">ajouter un sandwich dans la liste, en indiquant sa catégorie – gérer le token csrf – gérer les tailles et prix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/add_sandwich</t>
   </si>
   <si>
     <t xml:space="preserve">modifier 1 sandwich</t>
@@ -630,8 +639,8 @@
   </sheetPr>
   <dimension ref="A1:V65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -644,7 +653,7 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.765306122449"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.0612244897959"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.9132653061224"/>
     <col collapsed="false" hidden="false" max="22" min="10" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.23469387755102"/>
   </cols>
@@ -1871,10 +1880,18 @@
       <c r="E33" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="F33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1891,7 +1908,7 @@
     </row>
     <row r="34" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -1961,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E36" s="11" t="n">
         <v>3</v>
@@ -1973,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H36" s="10" t="n">
         <v>1</v>
@@ -2003,10 +2020,10 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E37" s="11" t="n">
         <v>4</v>
@@ -2037,18 +2054,26 @@
         <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E38" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="F38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2071,10 +2096,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E39" s="11" t="n">
         <v>3</v>
@@ -2105,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E40" s="11" t="n">
         <v>4</v>
@@ -2117,7 +2142,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H40" s="10" t="n">
         <v>1</v>
@@ -2147,10 +2172,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E41" s="11" t="n">
         <v>4</v>
@@ -2227,7 +2252,7 @@
       <c r="D44" s="12"/>
       <c r="E44" s="11" t="n">
         <f aca="false">E7*H7+E8*H8+E9*H9+E10*H10+E11*H11+E12*H12+E13*H13+E14*H14+E15*H15+E16*H16+E17*H17+E18*H18+E19*H19+E20*H20+E21*H21+E22*H22+E25*H25+E26*H26+E27*H27+E30*H30+E31*H31+E32*H32+E33*H33+E36*H36+E37*H37+E38*H38+E39*H39+E40*H40+E41*H41</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2252,7 +2277,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">SUM(E7:E22)+SUM(E25:E27)+SUM(E30:E33)+SUM(E36:E41)</f>
